--- a/rhla_analysis/rhla1_3_uniform_result/k3.xlsx
+++ b/rhla_analysis/rhla1_3_uniform_result/k3.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.002734400910947016</v>
+        <v>0.002734400910947018</v>
       </c>
       <c r="B2" t="n">
         <v>0.07723338230743433</v>
@@ -466,26 +466,26 @@
         <v>0.0907928388746803</v>
       </c>
       <c r="D2" t="n">
-        <v>28.24508359335127</v>
+        <v>28.24508359335125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.008459442552070612</v>
+        <v>0.008459442552070588</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07467608239369088</v>
+        <v>0.07467608239369086</v>
       </c>
       <c r="C3" t="n">
         <v>0.08013640238704177</v>
       </c>
       <c r="D3" t="n">
-        <v>8.827541759877837</v>
+        <v>8.82754175987786</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.00550416172310312</v>
+        <v>0.005504161723103137</v>
       </c>
       <c r="B4" t="n">
         <v>0.07687370945777362</v>
@@ -494,12 +494,12 @@
         <v>0.09121909633418585</v>
       </c>
       <c r="D4" t="n">
-        <v>13.96646997763612</v>
+        <v>13.96646997763608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.006806400991316163</v>
+        <v>0.006806400991316185</v>
       </c>
       <c r="B5" t="n">
         <v>0.0768544978413068</v>
@@ -508,12 +508,12 @@
         <v>0.07757885763000852</v>
       </c>
       <c r="D5" t="n">
-        <v>11.29150309236267</v>
+        <v>11.29150309236263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.002929072885392473</v>
+        <v>0.002929072885392482</v>
       </c>
       <c r="B6" t="n">
         <v>0.079123334992365</v>
@@ -522,26 +522,26 @@
         <v>0.0907928388746803</v>
       </c>
       <c r="D6" t="n">
-        <v>27.01309871357574</v>
+        <v>27.01309871357566</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.003949766242560013</v>
+        <v>0.003949766242560048</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06583678917614241</v>
+        <v>0.0658367891761424</v>
       </c>
       <c r="C7" t="n">
         <v>0.08866155157715259</v>
       </c>
       <c r="D7" t="n">
-        <v>16.6685279920441</v>
+        <v>16.66852799204394</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.005726157512986496</v>
+        <v>0.005726157512986448</v>
       </c>
       <c r="B8" t="n">
         <v>0.07678987660249405</v>
@@ -550,29 +550,29 @@
         <v>0.06436487638533675</v>
       </c>
       <c r="D8" t="n">
-        <v>13.41036749833381</v>
+        <v>13.41036749833392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.009970524260655412</v>
+        <v>0.009970524260655346</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07543322287470258</v>
+        <v>0.07543322287470257</v>
       </c>
       <c r="C9" t="n">
         <v>0.07374254049445865</v>
       </c>
       <c r="D9" t="n">
-        <v>7.565622519205824</v>
+        <v>7.565622519205872</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.008575832638929675</v>
+        <v>0.008575832638929677</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06715342101977081</v>
+        <v>0.06715342101977083</v>
       </c>
       <c r="C10" t="n">
         <v>0.08610400682011936</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.004403448443537789</v>
+        <v>0.004403448443537775</v>
       </c>
       <c r="B11" t="n">
         <v>0.06905415282760397</v>
@@ -592,7 +592,7 @@
         <v>0.08226768968456948</v>
       </c>
       <c r="D11" t="n">
-        <v>15.68183520552927</v>
+        <v>15.68183520552932</v>
       </c>
     </row>
   </sheetData>
